--- a/VisualThoughts.xlsx
+++ b/VisualThoughts.xlsx
@@ -1728,11 +1728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082659800"/>
-        <c:axId val="2082656808"/>
+        <c:axId val="2133004904"/>
+        <c:axId val="2133007896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082659800"/>
+        <c:axId val="2133004904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,12 +1742,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082656808"/>
+        <c:crossAx val="2133007896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082656808"/>
+        <c:axId val="2133007896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082659800"/>
+        <c:crossAx val="2133004904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
-      <selection activeCell="C136" sqref="C5:H136"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
